--- a/Manufacturing Files/jlcpcbfiles/jlcpcb_cpl_top.xlsx
+++ b/Manufacturing Files/jlcpcbfiles/jlcpcb_cpl_top.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\BITAXE\Manufacturing Files\jlcpcbfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\NerdAxe_ultra\Manufacturing Files\jlcpcbfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12880" windowHeight="7030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="bitaxeMax_top_pos" localSheetId="0">Sheet1!$A$1:$G$95</definedName>
+    <definedName name="NerdAxe_ultra_top_pos" localSheetId="0">Sheet1!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,8 +28,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="bitaxeMax-top-pos" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\BITAXE\Manufacturing Files\jlcpcbfiles\bitaxeMax-top-pos.csv" decimal="," thousands="." comma="1">
+  <connection id="1" name="NerdAxe_ultra-top-pos" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\NerdAxe_ultra\Manufacturing Files\NerdAxe_ultra-top-pos.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField type="text"/>
         <textField type="text"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="238">
   <si>
     <t>Val</t>
   </si>
@@ -80,189 +80,183 @@
     <t>1uF</t>
   </si>
   <si>
+    <t>115.540000</t>
+  </si>
+  <si>
+    <t>-109.624000</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>114.440000</t>
   </si>
   <si>
-    <t>-109.650000</t>
+    <t>-107.790000</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>108.485000</t>
+  </si>
+  <si>
+    <t>-122.318000</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>112.160000</t>
+  </si>
+  <si>
+    <t>-121.320000</t>
+  </si>
+  <si>
+    <t>90.000000</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>113.140000</t>
+  </si>
+  <si>
+    <t>-106.030000</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>99.820000</t>
+  </si>
+  <si>
+    <t>-114.630000</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>111.810000</t>
+  </si>
+  <si>
+    <t>-104.240000</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>111.870000</t>
+  </si>
+  <si>
+    <t>-114.710000</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>110.280000</t>
+  </si>
+  <si>
+    <t>-114.650000</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>101.370000</t>
+  </si>
+  <si>
+    <t>-114.620000</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>99.300000</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>330uF</t>
+  </si>
+  <si>
+    <t>105.600000</t>
+  </si>
+  <si>
+    <t>-114.560000</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>99.190000</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>98.010000</t>
+  </si>
+  <si>
+    <t>-106.040000</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>102.646000</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>96.730000</t>
+  </si>
+  <si>
+    <t>-107.780000</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>95.659000</t>
+  </si>
+  <si>
+    <t>-109.681000</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>116.356000</t>
+  </si>
+  <si>
+    <t>-103.365000</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>114.102000</t>
+  </si>
+  <si>
+    <t>-96.355000</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>93.733000</t>
+  </si>
+  <si>
+    <t>-131.818000</t>
   </si>
   <si>
     <t>0.000000</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>-107.790000</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>110.660000</t>
-  </si>
-  <si>
-    <t>-121.320000</t>
-  </si>
-  <si>
-    <t>90.000000</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>112.160000</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>113.140000</t>
-  </si>
-  <si>
-    <t>-106.030000</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>99.820000</t>
-  </si>
-  <si>
-    <t>-114.630000</t>
-  </si>
-  <si>
-    <t>-90.000000</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>111.810000</t>
-  </si>
-  <si>
-    <t>-104.240000</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>111.870000</t>
-  </si>
-  <si>
-    <t>-114.710000</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>110.280000</t>
-  </si>
-  <si>
-    <t>-114.650000</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>101.370000</t>
-  </si>
-  <si>
-    <t>-114.620000</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>99.300000</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>330uF</t>
-  </si>
-  <si>
-    <t>CP_EIA-7343-31_Kemet-D_Pad2.25x2.55mm_HandSolder</t>
-  </si>
-  <si>
-    <t>105.600000</t>
-  </si>
-  <si>
-    <t>-114.560000</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>99.190000</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>98.010000</t>
-  </si>
-  <si>
-    <t>-106.040000</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>100.710000</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>96.730000</t>
-  </si>
-  <si>
-    <t>-107.780000</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>-109.680000</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>124.210000</t>
-  </si>
-  <si>
-    <t>-102.480000</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>121.840000</t>
-  </si>
-  <si>
-    <t>-96.650000</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>127.450000</t>
-  </si>
-  <si>
-    <t>-101.810000</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>90.600000</t>
-  </si>
-  <si>
-    <t>-131.850000</t>
-  </si>
-  <si>
     <t>C23</t>
   </si>
   <si>
@@ -275,10 +269,10 @@
     <t>C24</t>
   </si>
   <si>
-    <t>93.630000</t>
-  </si>
-  <si>
-    <t>-129.150000</t>
+    <t>96.763000</t>
+  </si>
+  <si>
+    <t>-129.118000</t>
   </si>
   <si>
     <t>C25</t>
@@ -290,24 +284,6 @@
     <t>-130.240000</t>
   </si>
   <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>129.140000</t>
-  </si>
-  <si>
-    <t>-96.330000</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>111.531000</t>
-  </si>
-  <si>
-    <t>-65.931000</t>
-  </si>
-  <si>
     <t>C29</t>
   </si>
   <si>
@@ -317,37 +293,16 @@
     <t>-137.410000</t>
   </si>
   <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>6.8pF</t>
-  </si>
-  <si>
-    <t>124.043000</t>
-  </si>
-  <si>
-    <t>-76.096000</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>121.159000</t>
-  </si>
-  <si>
-    <t>-76.105000</t>
-  </si>
-  <si>
     <t>C32</t>
   </si>
   <si>
     <t>470pF</t>
   </si>
   <si>
-    <t>94.420000</t>
-  </si>
-  <si>
-    <t>-118.050000</t>
+    <t>81.736000</t>
+  </si>
+  <si>
+    <t>-127.813000</t>
   </si>
   <si>
     <t>C33</t>
@@ -368,34 +323,34 @@
     <t>C_1210_3225Metric</t>
   </si>
   <si>
-    <t>94.281600</t>
-  </si>
-  <si>
-    <t>-85.970200</t>
+    <t>94.381000</t>
+  </si>
+  <si>
+    <t>-94.248800</t>
   </si>
   <si>
     <t>C35</t>
   </si>
   <si>
-    <t>82.170000</t>
-  </si>
-  <si>
-    <t>-87.720000</t>
+    <t>82.200000</t>
+  </si>
+  <si>
+    <t>-91.000000</t>
   </si>
   <si>
     <t>C36</t>
   </si>
   <si>
-    <t>94.241600</t>
-  </si>
-  <si>
-    <t>-89.380200</t>
+    <t>94.341000</t>
+  </si>
+  <si>
+    <t>-97.658800</t>
   </si>
   <si>
     <t>C37</t>
   </si>
   <si>
-    <t>-92.740200</t>
+    <t>-101.018800</t>
   </si>
   <si>
     <t>C38</t>
@@ -404,10 +359,10 @@
     <t>C_0805_2012Metric</t>
   </si>
   <si>
-    <t>101.783000</t>
-  </si>
-  <si>
-    <t>-68.161600</t>
+    <t>102.027600</t>
+  </si>
+  <si>
+    <t>-78.039400</t>
   </si>
   <si>
     <t>C39</t>
@@ -416,10 +371,10 @@
     <t>3.3nF</t>
   </si>
   <si>
-    <t>105.115400</t>
-  </si>
-  <si>
-    <t>-67.480800</t>
+    <t>105.360000</t>
+  </si>
+  <si>
+    <t>-77.358600</t>
   </si>
   <si>
     <t>C40</t>
@@ -428,10 +383,10 @@
     <t>180pF</t>
   </si>
   <si>
-    <t>97.383000</t>
-  </si>
-  <si>
-    <t>-65.268000</t>
+    <t>94.000000</t>
+  </si>
+  <si>
+    <t>-76.500000</t>
   </si>
   <si>
     <t>C41</t>
@@ -440,19 +395,19 @@
     <t>1.5nF</t>
   </si>
   <si>
-    <t>97.405400</t>
-  </si>
-  <si>
-    <t>-63.005800</t>
+    <t>96.800000</t>
+  </si>
+  <si>
+    <t>-75.700000</t>
   </si>
   <si>
     <t>C42</t>
   </si>
   <si>
-    <t>96.669800</t>
-  </si>
-  <si>
-    <t>-73.128000</t>
+    <t>97.577600</t>
+  </si>
+  <si>
+    <t>-82.800000</t>
   </si>
   <si>
     <t>C43</t>
@@ -461,28 +416,28 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>104.265600</t>
-  </si>
-  <si>
-    <t>-70.297800</t>
+    <t>104.510200</t>
+  </si>
+  <si>
+    <t>-80.175600</t>
   </si>
   <si>
     <t>C44</t>
   </si>
   <si>
-    <t>95.930000</t>
-  </si>
-  <si>
-    <t>-97.140000</t>
+    <t>87.090000</t>
+  </si>
+  <si>
+    <t>-101.200000</t>
   </si>
   <si>
     <t>C45</t>
   </si>
   <si>
-    <t>92.070000</t>
-  </si>
-  <si>
-    <t>-66.420000</t>
+    <t>90.300000</t>
+  </si>
+  <si>
+    <t>-78.300000</t>
   </si>
   <si>
     <t>C46</t>
@@ -494,10 +449,10 @@
     <t>CAP_2R5TPE220MAFB</t>
   </si>
   <si>
-    <t>102.351600</t>
-  </si>
-  <si>
-    <t>-89.640200</t>
+    <t>102.451000</t>
+  </si>
+  <si>
+    <t>-97.918800</t>
   </si>
   <si>
     <t>C47</t>
@@ -509,46 +464,10 @@
     <t>C_1206_3216Metric</t>
   </si>
   <si>
-    <t>102.311600</t>
-  </si>
-  <si>
-    <t>-92.610200</t>
-  </si>
-  <si>
-    <t>C49</t>
-  </si>
-  <si>
-    <t>115.489000</t>
-  </si>
-  <si>
-    <t>-64.125000</t>
-  </si>
-  <si>
-    <t>C50</t>
-  </si>
-  <si>
-    <t>131.267000</t>
-  </si>
-  <si>
-    <t>-79.266000</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>131.390000</t>
-  </si>
-  <si>
-    <t>-82.740000</t>
-  </si>
-  <si>
-    <t>C52</t>
-  </si>
-  <si>
-    <t>131.270000</t>
-  </si>
-  <si>
-    <t>-80.550000</t>
+    <t>102.411000</t>
+  </si>
+  <si>
+    <t>-100.888800</t>
   </si>
   <si>
     <t>L1</t>
@@ -560,10 +479,10 @@
     <t>FP1005R1-R15-R</t>
   </si>
   <si>
-    <t>106.000600</t>
-  </si>
-  <si>
-    <t>-81.921400</t>
+    <t>106.100000</t>
+  </si>
+  <si>
+    <t>-90.200000</t>
   </si>
   <si>
     <t>Q1</t>
@@ -572,55 +491,34 @@
     <t>CSD17311Q5</t>
   </si>
   <si>
-    <t>91.719887</t>
-  </si>
-  <si>
-    <t>-80.066364</t>
+    <t>91.819287</t>
+  </si>
+  <si>
+    <t>-88.344964</t>
   </si>
   <si>
     <t>Q2</t>
   </si>
   <si>
-    <t>97.681600</t>
-  </si>
-  <si>
-    <t>-80.110200</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1k</t>
+    <t>97.781000</t>
+  </si>
+  <si>
+    <t>-88.388800</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>5.6k</t>
   </si>
   <si>
     <t>R_0402_1005Metric</t>
   </si>
   <si>
-    <t>118.490000</t>
-  </si>
-  <si>
-    <t>-116.520000</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>116.380000</t>
-  </si>
-  <si>
-    <t>-121.740000</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>116.410000</t>
-  </si>
-  <si>
-    <t>-117.890000</t>
+    <t>96.150000</t>
+  </si>
+  <si>
+    <t>-138.480000</t>
   </si>
   <si>
     <t>R4</t>
@@ -629,25 +527,10 @@
     <t>10k</t>
   </si>
   <si>
-    <t>109.955000</t>
-  </si>
-  <si>
-    <t>-71.760000</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>-119.250000</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>97.500000</t>
-  </si>
-  <si>
-    <t>-121.340000</t>
+    <t>107.377600</t>
+  </si>
+  <si>
+    <t>-82.045800</t>
   </si>
   <si>
     <t>R7</t>
@@ -656,19 +539,16 @@
     <t>100</t>
   </si>
   <si>
-    <t>93.910000</t>
-  </si>
-  <si>
-    <t>-116.670000</t>
+    <t>81.075000</t>
+  </si>
+  <si>
+    <t>-126.154000</t>
   </si>
   <si>
     <t>R8</t>
   </si>
   <si>
-    <t>94.990000</t>
-  </si>
-  <si>
-    <t>-119.670000</t>
+    <t>82.470000</t>
   </si>
   <si>
     <t>R9</t>
@@ -686,10 +566,10 @@
     <t>3.83k</t>
   </si>
   <si>
-    <t>94.828800</t>
-  </si>
-  <si>
-    <t>-64.083600</t>
+    <t>92.300000</t>
+  </si>
+  <si>
+    <t>-76.100000</t>
   </si>
   <si>
     <t>R11</t>
@@ -698,10 +578,10 @@
     <t>100k</t>
   </si>
   <si>
-    <t>105.114000</t>
-  </si>
-  <si>
-    <t>-66.292000</t>
+    <t>105.358600</t>
+  </si>
+  <si>
+    <t>-76.169800</t>
   </si>
   <si>
     <t>R12</t>
@@ -710,10 +590,7 @@
     <t>4.12k</t>
   </si>
   <si>
-    <t>99.160200</t>
-  </si>
-  <si>
-    <t>-73.123400</t>
+    <t>99.577600</t>
   </si>
   <si>
     <t>R13</t>
@@ -722,10 +599,7 @@
     <t>1.33k</t>
   </si>
   <si>
-    <t>90.649600</t>
-  </si>
-  <si>
-    <t>-64.079000</t>
+    <t>88.392300</t>
   </si>
   <si>
     <t>R14</t>
@@ -734,7 +608,7 @@
     <t>4.99k</t>
   </si>
   <si>
-    <t>92.057300</t>
+    <t>89.600000</t>
   </si>
   <si>
     <t>R15</t>
@@ -743,7 +617,7 @@
     <t>3.32k</t>
   </si>
   <si>
-    <t>93.465000</t>
+    <t>91.000000</t>
   </si>
   <si>
     <t>R16</t>
@@ -752,124 +626,10 @@
     <t>80k</t>
   </si>
   <si>
-    <t>94.330000</t>
-  </si>
-  <si>
-    <t>-102.040000</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>91.420000</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>-68.891000</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>-70.325500</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>-77.964000</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>60.4</t>
-  </si>
-  <si>
-    <t>96.110000</t>
-  </si>
-  <si>
-    <t>-54.220000</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>106.960000</t>
-  </si>
-  <si>
-    <t>-54.180000</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>116.420000</t>
-  </si>
-  <si>
-    <t>-120.520000</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>90.290000</t>
-  </si>
-  <si>
-    <t>-137.350000</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>19.1k</t>
-  </si>
-  <si>
-    <t>90.320000</t>
-  </si>
-  <si>
-    <t>-138.540000</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>-55.220000</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>-55.180000</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>-56.220000</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>-56.190000</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>96.090000</t>
-  </si>
-  <si>
-    <t>-138.500000</t>
+    <t>85.490000</t>
+  </si>
+  <si>
+    <t>-106.100000</t>
   </si>
   <si>
     <t>U1</t>
@@ -896,45 +656,33 @@
     <t>TXB0104</t>
   </si>
   <si>
-    <t>124.160000</t>
-  </si>
-  <si>
-    <t>-99.560000</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SN74AXC1T45DBVR</t>
-  </si>
-  <si>
-    <t>SN74AXC1T45</t>
-  </si>
-  <si>
-    <t>130.050000</t>
-  </si>
-  <si>
-    <t>-99.580000</t>
+    <t>116.422000</t>
+  </si>
+  <si>
+    <t>-99.265000</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>MCP1824</t>
+    <t>MCP1824T-1802E</t>
   </si>
   <si>
     <t>SOT-23-5</t>
   </si>
   <si>
-    <t>90.620000</t>
-  </si>
-  <si>
-    <t>-129.340000</t>
+    <t>93.753000</t>
+  </si>
+  <si>
+    <t>-129.308000</t>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
+    <t>MCP1824T-0802E</t>
+  </si>
+  <si>
     <t>102.320000</t>
   </si>
   <si>
@@ -962,10 +710,10 @@
     <t>TSSOP-16_4.4x5mm_P0.65mm</t>
   </si>
   <si>
-    <t>82.640000</t>
-  </si>
-  <si>
-    <t>-81.770000</t>
+    <t>82.537800</t>
+  </si>
+  <si>
+    <t>-85.700000</t>
   </si>
   <si>
     <t>U9</t>
@@ -974,10 +722,10 @@
     <t>TPS40305</t>
   </si>
   <si>
-    <t>98.201691</t>
-  </si>
-  <si>
-    <t>-69.422200</t>
+    <t>98.446291</t>
+  </si>
+  <si>
+    <t>-79.300000</t>
   </si>
   <si>
     <t>U10</t>
@@ -986,37 +734,10 @@
     <t>DS4432U+</t>
   </si>
   <si>
-    <t>93.040000</t>
-  </si>
-  <si>
-    <t>-99.540000</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>RT9080-33GJ5</t>
-  </si>
-  <si>
-    <t>112.563000</t>
-  </si>
-  <si>
-    <t>-63.380000</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>32.768kHz</t>
-  </si>
-  <si>
-    <t>SC32S-7PF20PPM</t>
-  </si>
-  <si>
-    <t>122.595000</t>
-  </si>
-  <si>
-    <t>-78.349000</t>
+    <t>84.200000</t>
+  </si>
+  <si>
+    <t>-103.600000</t>
   </si>
   <si>
     <t>Designator</t>
@@ -1032,6 +753,12 @@
   </si>
   <si>
     <t>Layer</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>CP_EIA-7343-31</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +830,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bitaxeMax-top-pos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NerdAxe_ultra-top-pos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1369,26 +1096,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" customWidth="1"/>
+    <col min="7" max="7" width="4.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1397,16 +1124,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>326</v>
+        <v>233</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1449,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -1457,7 +1184,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1466,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -1495,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -1503,7 +1230,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -1512,13 +1239,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -1526,7 +1253,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1535,10 +1262,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -1549,7 +1276,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -1558,13 +1285,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -1610,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
@@ -1633,7 +1360,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
@@ -1656,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
@@ -1693,16 +1420,16 @@
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
@@ -1710,7 +1437,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1719,13 +1446,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
@@ -1733,7 +1460,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -1742,10 +1469,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -1756,7 +1483,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1765,13 +1492,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>8</v>
@@ -1779,7 +1506,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1788,10 +1515,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -1802,7 +1529,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1811,13 +1538,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -1886,7 +1613,7 @@
         <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -1894,7 +1621,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -1903,13 +1630,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -1917,22 +1644,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -1940,7 +1667,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -1949,13 +1676,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -1963,22 +1690,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
@@ -1986,22 +1713,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -2009,22 +1736,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -2032,22 +1759,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -2055,22 +1782,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -2078,22 +1805,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -2101,22 +1828,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -2124,22 +1851,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>8</v>
@@ -2147,22 +1874,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -2170,22 +1897,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -2193,22 +1920,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -2216,22 +1943,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
@@ -2239,22 +1966,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>8</v>
@@ -2262,22 +1989,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>8</v>
@@ -2285,22 +2012,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>8</v>
@@ -2308,19 +2035,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -2331,22 +2058,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>8</v>
@@ -2354,22 +2081,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>8</v>
@@ -2377,22 +2104,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>8</v>
@@ -2400,22 +2127,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>8</v>
@@ -2423,22 +2150,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>8</v>
@@ -2446,19 +2173,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -2469,22 +2196,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>8</v>
@@ -2492,22 +2219,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>8</v>
@@ -2515,22 +2242,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>8</v>
@@ -2538,22 +2265,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>8</v>
@@ -2561,22 +2288,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -2584,22 +2311,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>8</v>
@@ -2607,22 +2334,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>8</v>
@@ -2630,22 +2357,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>8</v>
@@ -2653,22 +2380,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>8</v>
@@ -2676,19 +2403,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -2699,22 +2426,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>8</v>
@@ -2722,22 +2449,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>8</v>
@@ -2745,22 +2472,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>8</v>
@@ -2768,22 +2495,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>8</v>
@@ -2791,22 +2518,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>8</v>
@@ -2814,22 +2541,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>8</v>
@@ -2837,22 +2564,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>8</v>
@@ -2860,719 +2587,28 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>